--- a/Lab7/Calculos.xlsx
+++ b/Lab7/Calculos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ufmail-my.sharepoint.com/personal/luzarevalo_office_ufm_edu/Documents/6TO SEMESTRE/DATA WRANGLING/CLASES/Data_Wrangling/Lab7/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="142" documentId="8_{103FD02F-4B21-4174-93F7-3B392C172E7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00917622-30C5-4D10-BD73-529A513E379C}"/>
+  <xr:revisionPtr revIDLastSave="252" documentId="8_{103FD02F-4B21-4174-93F7-3B392C172E7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{238C477F-3580-47F0-A6B7-E2DF030F576F}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{DB778897-8C7F-4C45-87AE-5A6C647BFD45}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="31">
   <si>
     <t>ORIGEN</t>
   </si>
@@ -145,15 +145,23 @@
   </si>
   <si>
     <t>Utilidad</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>P</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="0.0%"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -220,12 +228,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -247,9 +256,13 @@
     <xf numFmtId="44" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Comma" xfId="3" builtinId="3"/>
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
@@ -585,19 +598,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88A00C48-2C02-4DCC-8DBA-C06EDD46829E}">
-  <dimension ref="A1:Q29"/>
+  <dimension ref="A1:Q41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="27.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.28515625" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.28515625" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
     <col min="7" max="7" width="7" customWidth="1"/>
     <col min="8" max="12" width="9.140625" customWidth="1"/>
     <col min="13" max="13" width="16" bestFit="1" customWidth="1"/>
@@ -1034,6 +1045,10 @@
       <c r="P10" s="9"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="F11" s="9">
+        <f>F10/G10</f>
+        <v>27.487326102394572</v>
+      </c>
       <c r="G11" s="3">
         <f>G8/SUM(G8:G10)</f>
         <v>2.1708218788510758E-2</v>
@@ -1068,6 +1083,9 @@
       <c r="Q13" s="9"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
       <c r="B14" t="s">
         <v>16</v>
       </c>
@@ -1081,18 +1099,18 @@
         <v>494162.9</v>
       </c>
       <c r="F14" s="2">
-        <f>C14-D14-E14</f>
+        <f t="shared" ref="F14:F23" si="11">C14-D14-E14</f>
         <v>259247.25</v>
       </c>
       <c r="G14">
         <v>5871</v>
       </c>
       <c r="H14" s="3">
-        <f>C14/SUM(C$8:C$10)</f>
+        <f t="shared" ref="H14:L15" si="12">C14/SUM(C$8:C$10)</f>
         <v>2.828597023716382E-2</v>
       </c>
       <c r="I14" s="3">
-        <f>D14/SUM(D$8:D$10)</f>
+        <f t="shared" si="12"/>
         <v>2.7659227081560545E-2</v>
       </c>
       <c r="J14" s="3">
@@ -1104,7 +1122,7 @@
         <v>3.0449247859189638E-2</v>
       </c>
       <c r="L14" s="3">
-        <f>G14/SUM(G$8:G$10)</f>
+        <f t="shared" si="12"/>
         <v>2.2261825765475401E-2</v>
       </c>
       <c r="M14" s="9">
@@ -1112,7 +1130,7 @@
         <v>176.76007494464318</v>
       </c>
       <c r="N14" s="9">
-        <f t="shared" ref="N14:N19" si="11">D14/$G14*1.25</f>
+        <f t="shared" ref="N14:N19" si="13">D14/$G14*1.25</f>
         <v>60.540846959632091</v>
       </c>
       <c r="O14" s="9">
@@ -1124,11 +1142,14 @@
         <v>144.71098833248169</v>
       </c>
       <c r="Q14" s="9">
-        <f>SUM(N14:O14)</f>
+        <f t="shared" ref="Q14:Q19" si="14">SUM(N14:O14)</f>
         <v>144.71098833248169</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
       <c r="B15" t="s">
         <v>17</v>
       </c>
@@ -1142,30 +1163,30 @@
         <v>970001.1</v>
       </c>
       <c r="F15" s="2">
-        <f>C15-D15-E15</f>
+        <f t="shared" si="11"/>
         <v>442788.50000000012</v>
       </c>
       <c r="G15">
         <v>12532</v>
       </c>
       <c r="H15" s="3">
-        <f>C15/SUM(C$8:C$10)</f>
+        <f t="shared" si="12"/>
         <v>5.3709126357695487E-2</v>
       </c>
       <c r="I15" s="3">
-        <f>D15/SUM(D$8:D$10)</f>
+        <f t="shared" si="12"/>
         <v>5.4248409499541461E-2</v>
       </c>
       <c r="J15" s="3">
-        <f>E15/SUM(E$8:E$10)</f>
+        <f t="shared" si="12"/>
         <v>5.4209366507267091E-2</v>
       </c>
       <c r="K15" s="3">
-        <f>F15/SUM(F$8:F$10)</f>
+        <f t="shared" si="12"/>
         <v>5.200663376640946E-2</v>
       </c>
       <c r="L15" s="3">
-        <f>G15/SUM(G$8:G$10)</f>
+        <f t="shared" si="12"/>
         <v>4.7519196132334816E-2</v>
       </c>
       <c r="M15" s="9">
@@ -1173,7 +1194,7 @@
         <v>157.23632301308652</v>
       </c>
       <c r="N15" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>55.627194382381106</v>
       </c>
       <c r="O15" s="9">
@@ -1181,15 +1202,18 @@
         <v>77.40193903606766</v>
       </c>
       <c r="P15" s="9">
-        <f t="shared" ref="P15:P23" si="12">SUM(N15:O15)</f>
+        <f t="shared" ref="P15:P23" si="15">SUM(N15:O15)</f>
         <v>133.02913341844877</v>
       </c>
       <c r="Q15" s="9">
-        <f>SUM(N15:O15)</f>
+        <f t="shared" si="14"/>
         <v>133.02913341844877</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
       <c r="B16" s="7" t="s">
         <v>21</v>
       </c>
@@ -1203,54 +1227,57 @@
         <v>2193768</v>
       </c>
       <c r="F16" s="6">
-        <f>C16-D16-E16</f>
+        <f t="shared" si="11"/>
         <v>1011008.1999999997</v>
       </c>
       <c r="G16" s="7">
         <v>35869</v>
       </c>
       <c r="H16" s="8">
-        <f t="shared" ref="H16:L19" si="13">C16/SUM(C$8:C$10)</f>
+        <f t="shared" ref="H16:L19" si="16">C16/SUM(C$8:C$10)</f>
         <v>0.12172421712706855</v>
       </c>
       <c r="I16" s="8">
+        <f t="shared" si="16"/>
+        <v>0.12266566748492182</v>
+      </c>
+      <c r="J16" s="8">
+        <f t="shared" si="16"/>
+        <v>0.12260065843627839</v>
+      </c>
+      <c r="K16" s="8">
+        <f t="shared" si="16"/>
+        <v>0.11874548049968962</v>
+      </c>
+      <c r="L16" s="8">
+        <f t="shared" si="16"/>
+        <v>0.13600910038866243</v>
+      </c>
+      <c r="M16" s="9">
+        <f t="shared" ref="M16:O19" si="17">C16/$G16</f>
+        <v>124.50388357634726</v>
+      </c>
+      <c r="N16" s="9">
         <f t="shared" si="13"/>
-        <v>0.12266566748492182</v>
-      </c>
-      <c r="J16" s="8">
-        <f t="shared" si="13"/>
-        <v>0.12260065843627839</v>
-      </c>
-      <c r="K16" s="8">
-        <f t="shared" si="13"/>
-        <v>0.11874548049968962</v>
-      </c>
-      <c r="L16" s="8">
-        <f t="shared" si="13"/>
-        <v>0.13600910038866243</v>
-      </c>
-      <c r="M16" s="9">
-        <f t="shared" ref="M16:O19" si="14">C16/$G16</f>
-        <v>124.50388357634726</v>
-      </c>
-      <c r="N16" s="9">
-        <f t="shared" si="11"/>
         <v>43.94649976302658</v>
       </c>
       <c r="O16" s="11">
+        <f t="shared" si="17"/>
+        <v>61.160556469374669</v>
+      </c>
+      <c r="P16" s="9">
+        <f t="shared" si="15"/>
+        <v>105.10705623240125</v>
+      </c>
+      <c r="Q16" s="9">
         <f t="shared" si="14"/>
-        <v>61.160556469374669</v>
-      </c>
-      <c r="P16" s="9">
-        <f t="shared" si="12"/>
         <v>105.10705623240125</v>
       </c>
-      <c r="Q16" s="9">
-        <f>SUM(N16:O16)</f>
-        <v>105.10705623240125</v>
-      </c>
-    </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
       <c r="B17" s="7" t="s">
         <v>23</v>
       </c>
@@ -1271,47 +1298,50 @@
         <v>90288</v>
       </c>
       <c r="H17" s="8">
+        <f t="shared" si="16"/>
+        <v>0.32622211308358351</v>
+      </c>
+      <c r="I17" s="8">
+        <f t="shared" si="16"/>
+        <v>0.33061222546333746</v>
+      </c>
+      <c r="J17" s="8">
+        <f t="shared" si="16"/>
+        <v>0.33070842564050945</v>
+      </c>
+      <c r="K17" s="8">
+        <f t="shared" si="16"/>
+        <v>0.31149256890115401</v>
+      </c>
+      <c r="L17" s="8">
+        <f t="shared" si="16"/>
+        <v>0.34235662148070906</v>
+      </c>
+      <c r="M17" s="9">
+        <f t="shared" si="17"/>
+        <v>132.55879297359562</v>
+      </c>
+      <c r="N17" s="9">
         <f t="shared" si="13"/>
-        <v>0.32622211308358351</v>
-      </c>
-      <c r="I17" s="8">
-        <f t="shared" si="13"/>
-        <v>0.33061222546333746</v>
-      </c>
-      <c r="J17" s="8">
-        <f t="shared" si="13"/>
-        <v>0.33070842564050945</v>
-      </c>
-      <c r="K17" s="8">
-        <f t="shared" si="13"/>
-        <v>0.31149256890115401</v>
-      </c>
-      <c r="L17" s="8">
-        <f t="shared" si="13"/>
-        <v>0.34235662148070906</v>
-      </c>
-      <c r="M17" s="9">
+        <v>47.055393435451009</v>
+      </c>
+      <c r="O17" s="9">
+        <f t="shared" si="17"/>
+        <v>65.541008771929825</v>
+      </c>
+      <c r="P17" s="9">
+        <f t="shared" si="15"/>
+        <v>112.59640220738083</v>
+      </c>
+      <c r="Q17" s="9">
         <f t="shared" si="14"/>
-        <v>132.55879297359562</v>
-      </c>
-      <c r="N17" s="9">
-        <f t="shared" si="11"/>
-        <v>47.055393435451009</v>
-      </c>
-      <c r="O17" s="9">
-        <f t="shared" si="14"/>
-        <v>65.541008771929825</v>
-      </c>
-      <c r="P17" s="9">
-        <f t="shared" si="12"/>
         <v>112.59640220738083</v>
       </c>
-      <c r="Q17" s="9">
-        <f>SUM(N17:O17)</f>
-        <v>112.59640220738083</v>
-      </c>
-    </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
       <c r="B18" s="12" t="s">
         <v>14</v>
       </c>
@@ -1325,54 +1355,57 @@
         <v>159345.20000000001</v>
       </c>
       <c r="F18" s="13">
-        <f>C18-D18-E18</f>
+        <f t="shared" si="11"/>
         <v>74873.780000000028</v>
       </c>
       <c r="G18" s="12">
         <v>1839</v>
       </c>
       <c r="H18" s="14">
+        <f t="shared" si="16"/>
+        <v>8.8661291482709081E-3</v>
+      </c>
+      <c r="I18" s="14">
+        <f t="shared" si="16"/>
+        <v>8.8578570586470649E-3</v>
+      </c>
+      <c r="J18" s="14">
+        <f t="shared" si="16"/>
+        <v>8.9051469611465157E-3</v>
+      </c>
+      <c r="K18" s="14">
+        <f t="shared" si="16"/>
+        <v>8.7941155995847082E-3</v>
+      </c>
+      <c r="L18" s="14">
+        <f t="shared" si="16"/>
+        <v>6.9731728125888709E-3</v>
+      </c>
+      <c r="M18" s="15">
+        <f t="shared" si="17"/>
+        <v>176.87949972811313</v>
+      </c>
+      <c r="N18" s="9">
         <f t="shared" si="13"/>
-        <v>8.8661291482709081E-3</v>
-      </c>
-      <c r="I18" s="14">
-        <f t="shared" si="13"/>
-        <v>8.8578570586470649E-3</v>
-      </c>
-      <c r="J18" s="14">
-        <f t="shared" si="13"/>
-        <v>8.9051469611465157E-3</v>
-      </c>
-      <c r="K18" s="14">
-        <f t="shared" si="13"/>
-        <v>8.7941155995847082E-3</v>
-      </c>
-      <c r="L18" s="14">
-        <f t="shared" si="13"/>
-        <v>6.9731728125888709E-3</v>
-      </c>
-      <c r="M18" s="15">
+        <v>61.896696574225125</v>
+      </c>
+      <c r="O18" s="15">
+        <f t="shared" si="17"/>
+        <v>86.647743338771079</v>
+      </c>
+      <c r="P18" s="9">
+        <f t="shared" si="15"/>
+        <v>148.54443991299621</v>
+      </c>
+      <c r="Q18" s="9">
         <f t="shared" si="14"/>
-        <v>176.87949972811313</v>
-      </c>
-      <c r="N18" s="9">
-        <f t="shared" si="11"/>
-        <v>61.896696574225125</v>
-      </c>
-      <c r="O18" s="15">
-        <f t="shared" si="14"/>
-        <v>86.647743338771079</v>
-      </c>
-      <c r="P18" s="9">
-        <f t="shared" si="12"/>
         <v>148.54443991299621</v>
       </c>
-      <c r="Q18" s="9">
-        <f>SUM(N18:O18)</f>
-        <v>148.54443991299621</v>
-      </c>
-    </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
       <c r="B19" t="s">
         <v>18</v>
       </c>
@@ -1386,54 +1419,57 @@
         <v>1378330.4</v>
       </c>
       <c r="F19" s="2">
-        <f>C19-D19-E19</f>
+        <f t="shared" si="11"/>
         <v>741997.73</v>
       </c>
       <c r="G19">
         <v>16498</v>
       </c>
       <c r="H19" s="3">
+        <f t="shared" si="16"/>
+        <v>7.9378711181588346E-2</v>
+      </c>
+      <c r="I19" s="3">
+        <f t="shared" si="16"/>
+        <v>7.7032483717578634E-2</v>
+      </c>
+      <c r="J19" s="3">
+        <f t="shared" si="16"/>
+        <v>7.7029209370698709E-2</v>
+      </c>
+      <c r="K19" s="3">
+        <f t="shared" si="16"/>
+        <v>8.7149517658243511E-2</v>
+      </c>
+      <c r="L19" s="3">
+        <f t="shared" si="16"/>
+        <v>6.2557588397004454E-2</v>
+      </c>
+      <c r="M19" s="9">
+        <f t="shared" si="17"/>
+        <v>176.52162686386228</v>
+      </c>
+      <c r="N19" s="9">
         <f t="shared" si="13"/>
-        <v>7.9378711181588346E-2</v>
-      </c>
-      <c r="I19" s="3">
-        <f t="shared" si="13"/>
-        <v>7.7032483717578634E-2</v>
-      </c>
-      <c r="J19" s="3">
-        <f t="shared" si="13"/>
-        <v>7.7029209370698709E-2</v>
-      </c>
-      <c r="K19" s="3">
-        <f t="shared" si="13"/>
-        <v>8.7149517658243511E-2</v>
-      </c>
-      <c r="L19" s="3">
-        <f t="shared" si="13"/>
-        <v>6.2557588397004454E-2</v>
-      </c>
-      <c r="M19" s="9">
+        <v>60.001641865680696</v>
+      </c>
+      <c r="O19" s="9">
+        <f t="shared" si="17"/>
+        <v>83.545302460904352</v>
+      </c>
+      <c r="P19" s="9">
+        <f t="shared" si="15"/>
+        <v>143.54694432658505</v>
+      </c>
+      <c r="Q19" s="9">
         <f t="shared" si="14"/>
-        <v>176.52162686386228</v>
-      </c>
-      <c r="N19" s="9">
-        <f t="shared" si="11"/>
-        <v>60.001641865680696</v>
-      </c>
-      <c r="O19" s="9">
-        <f t="shared" si="14"/>
-        <v>83.545302460904352</v>
-      </c>
-      <c r="P19" s="9">
-        <f t="shared" si="12"/>
         <v>143.54694432658505</v>
       </c>
-      <c r="Q19" s="9">
-        <f>SUM(N19:O19)</f>
-        <v>143.54694432658505</v>
-      </c>
-    </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>29</v>
+      </c>
       <c r="B20" t="s">
         <v>19</v>
       </c>
@@ -1447,34 +1483,34 @@
         <v>1322016.8999999999</v>
       </c>
       <c r="F20" s="2">
-        <f>C20-D20-E20</f>
+        <f t="shared" si="11"/>
         <v>854277.27</v>
       </c>
       <c r="G20">
         <v>19144</v>
       </c>
       <c r="H20" s="3">
-        <f t="shared" ref="H20:L24" si="15">C20/SUM(C$8:C$10)</f>
+        <f t="shared" ref="H20:L24" si="18">C20/SUM(C$8:C$10)</f>
         <v>8.0042520494583422E-2</v>
       </c>
       <c r="I20" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>7.3957496061441905E-2</v>
       </c>
       <c r="J20" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>7.3882079784137425E-2</v>
       </c>
       <c r="K20" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0.10033703476006735</v>
       </c>
       <c r="L20" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>7.2590766897336234E-2</v>
       </c>
       <c r="M20" s="9">
-        <f t="shared" ref="M20:O23" si="16">C20/$G20</f>
+        <f t="shared" ref="M20:O23" si="19">C20/$G20</f>
         <v>153.39572189720019</v>
       </c>
       <c r="N20" s="9">
@@ -1482,11 +1518,11 @@
         <v>49.644374869410782</v>
       </c>
       <c r="O20" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>69.056461554534053</v>
       </c>
       <c r="P20" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>118.70083642394484</v>
       </c>
       <c r="Q20" s="9">
@@ -1494,7 +1530,10 @@
         <v>75.059716157205244</v>
       </c>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>30</v>
+      </c>
       <c r="B21" s="7" t="s">
         <v>22</v>
       </c>
@@ -1508,46 +1547,46 @@
         <v>3095330.3</v>
       </c>
       <c r="F21" s="6">
-        <f>C21-D21-E21</f>
+        <f t="shared" si="11"/>
         <v>1365160.8200000003</v>
       </c>
       <c r="G21" s="7">
         <v>47393</v>
       </c>
       <c r="H21" s="8">
+        <f t="shared" si="18"/>
+        <v>0.16999949108833975</v>
+      </c>
+      <c r="I21" s="8">
+        <f t="shared" si="18"/>
+        <v>0.17280110758206968</v>
+      </c>
+      <c r="J21" s="8">
+        <f t="shared" si="18"/>
+        <v>0.17298526227830979</v>
+      </c>
+      <c r="K21" s="8">
+        <f t="shared" si="18"/>
+        <v>0.16034160507328266</v>
+      </c>
+      <c r="L21" s="8">
+        <f t="shared" si="18"/>
+        <v>0.17970613328277563</v>
+      </c>
+      <c r="M21" s="9">
+        <f t="shared" si="19"/>
+        <v>131.60082079632014</v>
+      </c>
+      <c r="N21" s="9">
+        <f t="shared" ref="N21:N23" si="20">D21/$G21*1.25</f>
+        <v>46.854666828434581</v>
+      </c>
+      <c r="O21" s="9">
+        <f t="shared" si="19"/>
+        <v>65.311972232186179</v>
+      </c>
+      <c r="P21" s="9">
         <f t="shared" si="15"/>
-        <v>0.16999949108833975</v>
-      </c>
-      <c r="I21" s="8">
-        <f t="shared" si="15"/>
-        <v>0.17280110758206968</v>
-      </c>
-      <c r="J21" s="8">
-        <f t="shared" si="15"/>
-        <v>0.17298526227830979</v>
-      </c>
-      <c r="K21" s="8">
-        <f t="shared" si="15"/>
-        <v>0.16034160507328266</v>
-      </c>
-      <c r="L21" s="8">
-        <f t="shared" si="15"/>
-        <v>0.17970613328277563</v>
-      </c>
-      <c r="M21" s="9">
-        <f t="shared" si="16"/>
-        <v>131.60082079632014</v>
-      </c>
-      <c r="N21" s="9">
-        <f t="shared" ref="N21:N23" si="17">D21/$G21*1.25</f>
-        <v>46.854666828434581</v>
-      </c>
-      <c r="O21" s="9">
-        <f t="shared" si="16"/>
-        <v>65.311972232186179</v>
-      </c>
-      <c r="P21" s="9">
-        <f t="shared" si="12"/>
         <v>112.16663906062075</v>
       </c>
       <c r="Q21" s="9">
@@ -1555,7 +1594,10 @@
         <v>112.16663906062075</v>
       </c>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
       <c r="B22" s="7" t="s">
         <v>20</v>
       </c>
@@ -1569,46 +1611,46 @@
         <v>2213474.2999999998</v>
       </c>
       <c r="F22" s="6">
-        <f>C22-D22-E22</f>
+        <f t="shared" si="11"/>
         <v>1044181.1400000001</v>
       </c>
       <c r="G22" s="7">
         <v>31920</v>
       </c>
       <c r="H22" s="8">
+        <f t="shared" si="18"/>
+        <v>0.1234760987039821</v>
+      </c>
+      <c r="I22" s="8">
+        <f t="shared" si="18"/>
+        <v>0.12377398493367776</v>
+      </c>
+      <c r="J22" s="8">
+        <f t="shared" si="18"/>
+        <v>0.12370196238243077</v>
+      </c>
+      <c r="K22" s="8">
+        <f t="shared" si="18"/>
+        <v>0.12264172654387347</v>
+      </c>
+      <c r="L22" s="8">
+        <f t="shared" si="18"/>
+        <v>0.12103516921035169</v>
+      </c>
+      <c r="M22" s="9">
+        <f t="shared" si="19"/>
+        <v>141.9205200501253</v>
+      </c>
+      <c r="N22" s="9">
+        <f t="shared" si="20"/>
+        <v>49.829556704260654</v>
+      </c>
+      <c r="O22" s="16">
+        <f t="shared" si="19"/>
+        <v>69.344432957393479</v>
+      </c>
+      <c r="P22" s="9">
         <f t="shared" si="15"/>
-        <v>0.1234760987039821</v>
-      </c>
-      <c r="I22" s="8">
-        <f t="shared" si="15"/>
-        <v>0.12377398493367776</v>
-      </c>
-      <c r="J22" s="8">
-        <f t="shared" si="15"/>
-        <v>0.12370196238243077</v>
-      </c>
-      <c r="K22" s="8">
-        <f t="shared" si="15"/>
-        <v>0.12264172654387347</v>
-      </c>
-      <c r="L22" s="8">
-        <f t="shared" si="15"/>
-        <v>0.12103516921035169</v>
-      </c>
-      <c r="M22" s="9">
-        <f t="shared" si="16"/>
-        <v>141.9205200501253</v>
-      </c>
-      <c r="N22" s="9">
-        <f t="shared" si="17"/>
-        <v>49.829556704260654</v>
-      </c>
-      <c r="O22" s="16">
-        <f t="shared" si="16"/>
-        <v>69.344432957393479</v>
-      </c>
-      <c r="P22" s="9">
-        <f t="shared" si="12"/>
         <v>119.17398966165413</v>
       </c>
       <c r="Q22" s="9">
@@ -1616,7 +1658,10 @@
         <v>119.17398966165413</v>
       </c>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>30</v>
+      </c>
       <c r="B23" t="s">
         <v>15</v>
       </c>
@@ -1630,46 +1675,46 @@
         <v>149611.20000000001</v>
       </c>
       <c r="F23" s="2">
-        <f>C23-D23-E23</f>
+        <f t="shared" si="11"/>
         <v>68471.020000000019</v>
       </c>
       <c r="G23">
         <v>2371</v>
       </c>
       <c r="H23" s="3">
+        <f t="shared" si="18"/>
+        <v>8.2956253034039279E-3</v>
+      </c>
+      <c r="I23" s="3">
+        <f t="shared" si="18"/>
+        <v>8.391539171776383E-3</v>
+      </c>
+      <c r="J23" s="3">
+        <f t="shared" si="18"/>
+        <v>8.3611537908483188E-3</v>
+      </c>
+      <c r="K23" s="3">
+        <f t="shared" si="18"/>
+        <v>8.0420951780646906E-3</v>
+      </c>
+      <c r="L23" s="3">
+        <f t="shared" si="18"/>
+        <v>8.9904256327613986E-3</v>
+      </c>
+      <c r="M23" s="9">
+        <f t="shared" si="19"/>
+        <v>128.3638549135386</v>
+      </c>
+      <c r="N23" s="9">
+        <f t="shared" si="20"/>
+        <v>45.481062842682405</v>
+      </c>
+      <c r="O23" s="9">
+        <f t="shared" si="19"/>
+        <v>63.100463939266135</v>
+      </c>
+      <c r="P23" s="9">
         <f t="shared" si="15"/>
-        <v>8.2956253034039279E-3</v>
-      </c>
-      <c r="I23" s="3">
-        <f t="shared" si="15"/>
-        <v>8.391539171776383E-3</v>
-      </c>
-      <c r="J23" s="3">
-        <f t="shared" si="15"/>
-        <v>8.3611537908483188E-3</v>
-      </c>
-      <c r="K23" s="3">
-        <f t="shared" si="15"/>
-        <v>8.0420951780646906E-3</v>
-      </c>
-      <c r="L23" s="3">
-        <f t="shared" si="15"/>
-        <v>8.9904256327613986E-3</v>
-      </c>
-      <c r="M23" s="9">
-        <f t="shared" si="16"/>
-        <v>128.3638549135386</v>
-      </c>
-      <c r="N23" s="9">
-        <f t="shared" si="17"/>
-        <v>45.481062842682405</v>
-      </c>
-      <c r="O23" s="9">
-        <f t="shared" si="16"/>
-        <v>63.100463939266135</v>
-      </c>
-      <c r="P23" s="9">
-        <f t="shared" si="12"/>
         <v>108.58152678194854</v>
       </c>
       <c r="Q23" s="9">
@@ -1677,7 +1722,7 @@
         <v>108.58152678194854</v>
       </c>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="F24" s="3">
         <f>G24-G11</f>
         <v>0.16815967505050222</v>
@@ -1686,9 +1731,12 @@
         <f>G20/SUM(G20:G23)</f>
         <v>0.18986789383901298</v>
       </c>
-      <c r="H24" s="17"/>
+      <c r="H24" s="17">
+        <f>SUM(G20:G23)/SUM(G14:G23)</f>
+        <v>0.38232249502322496</v>
+      </c>
       <c r="K24" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.9750780868585994E-8</v>
       </c>
       <c r="M24" s="9" t="e" cm="1">
@@ -1704,7 +1752,15 @@
         <v>117.21713099381819</v>
       </c>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D25" s="9">
+        <f>D14*(1.25)</f>
+        <v>355435.3125</v>
+      </c>
+      <c r="E25" s="9">
+        <f>E14*1.02</f>
+        <v>504046.15800000005</v>
+      </c>
       <c r="G25" s="19">
         <f>G8/SUM(G20:G23)</f>
         <v>5.6779862736541439E-2</v>
@@ -1722,7 +1778,19 @@
         <v>107.25529893594575</v>
       </c>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D26" s="9">
+        <f t="shared" ref="D26:D32" si="21">D15*(1.25)</f>
+        <v>697120</v>
+      </c>
+      <c r="E26" s="9">
+        <f t="shared" ref="E26:E34" si="22">E15*1.02</f>
+        <v>989401.12199999997</v>
+      </c>
+      <c r="F26" s="9">
+        <f>SUM(F14:F19)/SUM(G14:G19)</f>
+        <v>31.811434648888557</v>
+      </c>
       <c r="L26" t="s">
         <v>28</v>
       </c>
@@ -1731,7 +1799,19 @@
         <v>5943974.525000006</v>
       </c>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D27" s="9">
+        <f t="shared" si="21"/>
+        <v>1576317</v>
+      </c>
+      <c r="E27" s="9">
+        <f t="shared" si="22"/>
+        <v>2237643.36</v>
+      </c>
+      <c r="F27" s="9">
+        <f>SUM(F20:F23)/SUM(G20:G23)</f>
+        <v>33.047271095330665</v>
+      </c>
       <c r="L27" t="s">
         <v>28</v>
       </c>
@@ -1740,16 +1820,153 @@
         <v>6779440.13138647</v>
       </c>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D28" s="9">
+        <f t="shared" si="21"/>
+        <v>4248537.3624999998</v>
+      </c>
+      <c r="E28" s="9">
+        <f t="shared" si="22"/>
+        <v>6035917.932</v>
+      </c>
       <c r="M28" s="9">
         <f>M27-M26</f>
         <v>835465.60638646409</v>
       </c>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D29" s="9">
+        <f t="shared" si="21"/>
+        <v>113828.02499999999</v>
+      </c>
+      <c r="E29" s="9">
+        <f t="shared" si="22"/>
+        <v>162532.10400000002</v>
+      </c>
       <c r="M29" s="19">
         <f>M28/M26</f>
         <v>0.14055672729964522</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D30" s="9">
+        <f t="shared" si="21"/>
+        <v>989907.08750000002</v>
+      </c>
+      <c r="E30" s="9">
+        <f t="shared" si="22"/>
+        <v>1405897.0079999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D31" s="9">
+        <f t="shared" si="21"/>
+        <v>950391.91250000009</v>
+      </c>
+      <c r="E31" s="9">
+        <f t="shared" si="22"/>
+        <v>1348457.2379999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D32" s="9">
+        <f t="shared" si="21"/>
+        <v>2220583.2250000001</v>
+      </c>
+      <c r="E32" s="9">
+        <f t="shared" si="22"/>
+        <v>3157236.906</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D33" s="9">
+        <f>D22*(1.25)</f>
+        <v>1590559.4500000002</v>
+      </c>
+      <c r="E33" s="9">
+        <f t="shared" si="22"/>
+        <v>2257743.7859999998</v>
+      </c>
+      <c r="F33" s="9">
+        <f>SUM(E14:E23)</f>
+        <v>17893606.899999999</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D34" s="9">
+        <f>D23*(1.25)</f>
+        <v>107835.59999999999</v>
+      </c>
+      <c r="E34" s="9">
+        <f t="shared" si="22"/>
+        <v>152603.42400000003</v>
+      </c>
+      <c r="F34" s="9">
+        <f>SUM(D14:D23)</f>
+        <v>10280411.980000002</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C35" s="9">
+        <f>SUM(C14:C23)</f>
+        <v>36688096.400000006</v>
+      </c>
+      <c r="D35" s="9">
+        <f>C35*1.02</f>
+        <v>37421858.328000009</v>
+      </c>
+      <c r="E35" s="19">
+        <f>(D35-C35)/C35</f>
+        <v>2.000000000000008E-2</v>
+      </c>
+      <c r="F35" s="3"/>
+    </row>
+    <row r="36" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C36" s="9">
+        <f>SUM(D14:E23)</f>
+        <v>28174018.879999999</v>
+      </c>
+      <c r="D36" s="9">
+        <f>SUM(D25:E34)</f>
+        <v>31101994.013</v>
+      </c>
+      <c r="E36" s="19">
+        <f>(D36-C36)/C36</f>
+        <v>0.10392465290347677</v>
+      </c>
+      <c r="F36" s="3"/>
+    </row>
+    <row r="37" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C37" s="9">
+        <f>C35-C36</f>
+        <v>8514077.520000007</v>
+      </c>
+      <c r="D37" s="9">
+        <f>D35-D36</f>
+        <v>6319864.3150000088</v>
+      </c>
+      <c r="E37" s="19">
+        <f>(D37-C37)/C37</f>
+        <v>-0.25771590637337732</v>
+      </c>
+    </row>
+    <row r="40" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C40" s="20">
+        <f>3792839/(1.7611)</f>
+        <v>2153676.1115212082</v>
+      </c>
+      <c r="D40" s="21">
+        <v>3792839</v>
+      </c>
+    </row>
+    <row r="41" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C41" s="20">
+        <f>C40*(1-25.77%)</f>
+        <v>1598673.7775821928</v>
+      </c>
+      <c r="D41" s="22">
+        <f>(D40-C41)/D40</f>
+        <v>0.57850207256828123</v>
       </c>
     </row>
   </sheetData>
